--- a/SorteioGrupos/documentos/GestaoEntregas.xlsx
+++ b/SorteioGrupos/documentos/GestaoEntregas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3853EB0-BB86-4C89-971C-48159ED15D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F9CC4E-4243-468B-B2C5-E9375093D3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2EFEAD8-89AC-4165-9D5E-89350841DA2B}"/>
   </bookViews>
@@ -604,7 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E35660-47F2-415B-B371-9A876C5CB1D5}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -853,7 +855,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1105,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
